--- a/outputs/final report/Hyperparameter_Tuning_Results_FINAL.xlsx
+++ b/outputs/final report/Hyperparameter_Tuning_Results_FINAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepo\Go3D\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepo\Go3D\outputs\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392A771E-7884-4692-AFE9-502D9CE1FC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C694BDB3-5395-4511-A81E-3D8AABB2D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3600" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <customWorkbookView name="Filter 1" guid="{090C84B6-707E-4C3B-9D95-45B567422621}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -491,10 +491,10 @@
     <t>PointNet</t>
   </si>
   <si>
-    <t>Ours</t>
-  </si>
-  <si>
     <t>Overfitting Index</t>
+  </si>
+  <si>
+    <t>Go3D</t>
   </si>
 </sst>
 </file>
@@ -697,45 +697,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000%"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2160,7 +2136,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{586F88F2-9477-4658-BD66-3E973DE604BD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="7" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{586F88F2-9477-4658-BD66-3E973DE604BD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="7" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2223,7 +2199,7 @@
     <dataField name="Max of VALIDATE ACCURACY" fld="11" subtotal="max" baseField="6" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2440,7 +2416,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2474,21 +2450,21 @@
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
@@ -2500,29 +2476,29 @@
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2536,31 +2512,31 @@
       <c r="C5" s="17">
         <v>0.86233478784561102</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <v>0.86319220066070501</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="26">
         <v>0.86563879251480103</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <v>1024</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="26">
         <v>32</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="26">
         <v>24</v>
       </c>
-      <c r="N5" s="28" t="b">
+      <c r="N5" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="26">
         <v>0.3</v>
       </c>
     </row>
@@ -2574,31 +2550,31 @@
       <c r="C6" s="17">
         <v>0.86563879251480103</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="28">
+      <c r="H6" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="26">
         <v>0.86018544435501099</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <v>0.86233478784561102</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <v>1024</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="26">
         <v>32</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="26">
         <v>24</v>
       </c>
-      <c r="N6" s="28" t="b">
+      <c r="N6" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="26">
         <v>0.3</v>
       </c>
     </row>
@@ -2675,7 +2651,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2972,7 +2948,7 @@
         <v>-2.3561470927992108E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3014,7 +2990,7 @@
         <v>0.15200350527746928</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3056,7 +3032,7 @@
         <v>6.2631264398589105E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3098,7 +3074,7 @@
         <v>-4.0195238847352812E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3140,7 +3116,7 @@
         <v>6.5065759614531066E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3476,7 +3452,7 @@
         <v>5.6726129075369565E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3518,7 +3494,7 @@
         <v>0.11864177327854354</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3560,7 +3536,7 @@
         <v>-5.07076934845939E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -3602,7 +3578,7 @@
         <v>3.9722670815608464E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -3644,7 +3620,7 @@
         <v>0.19606307184419669</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -3980,7 +3956,7 @@
         <v>3.2211133422565159E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -4022,7 +3998,7 @@
         <v>3.2877098958211878E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -4064,7 +4040,7 @@
         <v>5.6595992508970634E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -4106,7 +4082,7 @@
         <v>1.240444219631128E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -4148,7 +4124,7 @@
         <v>0.11253014634023913</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -6272,7 +6248,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="8">
         <v>1024</v>
       </c>
@@ -6302,7 +6278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="8">
         <v>1024</v>
       </c>
@@ -6332,7 +6308,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8">
         <v>1024</v>
       </c>
@@ -6362,7 +6338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="8">
         <v>1024</v>
       </c>
@@ -6392,7 +6368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="8">
         <v>1024</v>
       </c>
@@ -6422,7 +6398,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="570" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="570" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J570" s="2" t="s">
         <v>86</v>
       </c>
@@ -6438,7 +6414,7 @@
   <customSheetViews>
     <customSheetView guid="{090C84B6-707E-4C3B-9D95-45B567422621}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Y97" xr:uid="{5EBDCBAE-4725-44C2-9F69-050CCE16C4D6}">
+      <autoFilter ref="A1:Y97" xr:uid="{03E7EE4C-7A3C-4110-93AD-27E69820C643}">
         <filterColumn colId="3">
           <filters>
             <filter val="32"/>
@@ -6568,7 +6544,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>116</v>
       </c>

--- a/outputs/final report/Hyperparameter_Tuning_Results_FINAL.xlsx
+++ b/outputs/final report/Hyperparameter_Tuning_Results_FINAL.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepo\Go3D\outputs\final report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hengyejing/gitrepo/Go3D/outputs/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C694BDB3-5395-4511-A81E-3D8AABB2D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D8B9E-38FF-8F4B-B177-0F3AADC15D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3600" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10880" yWindow="500" windowWidth="22720" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="configs" sheetId="1" r:id="rId2"/>
-    <sheet name="ideas" sheetId="2" r:id="rId3"/>
+    <sheet name="confusion matrix" sheetId="4" r:id="rId2"/>
+    <sheet name="configs" sheetId="1" r:id="rId3"/>
+    <sheet name="ideas" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">configs!$A$1:$M$97</definedName>
-    <definedName name="Z_090C84B6_707E_4C3B_9D95_45B567422621_.wvu.FilterData" localSheetId="1" hidden="1">configs!$A$1:$Y$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">configs!$A$1:$M$97</definedName>
+    <definedName name="Z_090C84B6_707E_4C3B_9D95_45B567422621_.wvu.FilterData" localSheetId="2" hidden="1">configs!$A$1:$Y$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filter 1" guid="{090C84B6-707E-4C3B-9D95-45B567422621}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>RUN ID</t>
   </si>
@@ -495,6 +496,39 @@
   </si>
   <si>
     <t>Go3D</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Dresser</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Night Stand</t>
+  </si>
+  <si>
+    <t>Bathtub</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -666,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -703,6 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2415,27 +2452,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067AAC5A-218C-483D-AE79-B600D4807287}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E5" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -2443,7 +2480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>132</v>
       </c>
@@ -2466,7 +2503,7 @@
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
@@ -2502,7 +2539,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2540,7 +2577,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2590,6 +2627,415 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997E57C-0FE5-7843-AAE2-C1B04C48FD5F}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B1" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>96</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>84</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>94</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>95</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>85</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:K11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2601,19 +3047,19 @@
       <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2654,7 +3100,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2696,7 +3142,7 @@
         <v>-1.0407862703665862E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2738,7 +3184,7 @@
         <v>-1.8286207072180621E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2780,7 +3226,7 @@
         <v>-1.8286207072180621E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2822,7 +3268,7 @@
         <v>-1.1218108404623756E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2864,7 +3310,7 @@
         <v>9.0964883501242488E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2906,7 +3352,7 @@
         <v>-3.0016069831341946E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2948,7 +3394,7 @@
         <v>-2.3561470927992108E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2990,7 +3436,7 @@
         <v>0.15200350527746928</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3032,7 +3478,7 @@
         <v>6.2631264398589105E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3074,7 +3520,7 @@
         <v>-4.0195238847352812E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3116,7 +3562,7 @@
         <v>6.5065759614531066E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3158,7 +3604,7 @@
         <v>9.1467024042354503E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -3200,7 +3646,7 @@
         <v>-9.0954770035014936E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -3242,7 +3688,7 @@
         <v>1.3001981229947848E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3284,7 +3730,7 @@
         <v>7.2075520939396988E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -3326,7 +3772,7 @@
         <v>-1.0355021232483356E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -3368,7 +3814,7 @@
         <v>1.1454382855175214E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -3410,7 +3856,7 @@
         <v>1.3363395668038194E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -3452,7 +3898,7 @@
         <v>5.6726129075369565E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3494,7 +3940,7 @@
         <v>0.11864177327854354</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3536,7 +3982,7 @@
         <v>-5.07076934845939E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -3578,7 +4024,7 @@
         <v>3.9722670815608464E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -3620,7 +4066,7 @@
         <v>0.19606307184419669</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -3662,7 +4108,7 @@
         <v>5.0599144435166978E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -3704,7 +4150,7 @@
         <v>2.1547033016671688E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -3746,7 +4192,7 @@
         <v>-6.65334704090975E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -3788,7 +4234,7 @@
         <v>2.2121251569327781E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -3830,7 +4276,7 @@
         <v>6.7321857175307058E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -3872,7 +4318,7 @@
         <v>1.5743452649123985E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -3914,7 +4360,7 @@
         <v>3.224772100873495E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -3956,7 +4402,7 @@
         <v>3.2211133422565159E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -3998,7 +4444,7 @@
         <v>3.2877098958211878E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -4040,7 +4486,7 @@
         <v>5.6595992508970634E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -4082,7 +4528,7 @@
         <v>1.240444219631128E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -4124,7 +4570,7 @@
         <v>0.11253014634023913</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -4166,7 +4612,7 @@
         <v>7.5436131196492083E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -4208,7 +4654,7 @@
         <v>2.5781752580197864E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -4250,7 +4696,7 @@
         <v>1.8803369904942538E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>51</v>
       </c>
@@ -4292,7 +4738,7 @@
         <v>-2.4986978153433686E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -4334,7 +4780,7 @@
         <v>8.0886319035882864E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -4376,7 +4822,7 @@
         <v>6.2753550993966383E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -4418,7 +4864,7 @@
         <v>1.379860309159138E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -4460,7 +4906,7 @@
         <v>1.831255132157605E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -4502,7 +4948,7 @@
         <v>1.7690435235234656E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
@@ -4544,7 +4990,7 @@
         <v>1.4407689225215079E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
@@ -4586,7 +5032,7 @@
         <v>4.2873745713246245E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
@@ -4628,7 +5074,7 @@
         <v>3.5497756245759342E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -4670,7 +5116,7 @@
         <v>6.1910740936847786E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -4712,7 +5158,7 @@
         <v>-9.5414016018256515E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>63</v>
       </c>
@@ -4754,7 +5200,7 @@
         <v>-7.9876071200247513E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>64</v>
       </c>
@@ -4796,7 +5242,7 @@
         <v>1.8934414173543582E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -4838,7 +5284,7 @@
         <v>5.440189886360778E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>66</v>
       </c>
@@ -4880,7 +5326,7 @@
         <v>5.0853859000011506E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>67</v>
       </c>
@@ -4922,7 +5368,7 @@
         <v>3.1788178436275571E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B56" s="9">
         <v>2048</v>
       </c>
@@ -4952,7 +5398,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57" s="9">
         <v>2048</v>
       </c>
@@ -4982,7 +5428,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="9">
         <v>2048</v>
       </c>
@@ -5012,7 +5458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" s="9">
         <v>2048</v>
       </c>
@@ -5042,7 +5488,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="9">
         <v>2048</v>
       </c>
@@ -5072,7 +5518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B61" s="9">
         <v>2048</v>
       </c>
@@ -5102,7 +5548,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
@@ -5144,7 +5590,7 @@
         <v>-2.6826133558513952E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -5186,7 +5632,7 @@
         <v>0.17641959540523033</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -5228,7 +5674,7 @@
         <v>5.525864542257989E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
@@ -5270,7 +5716,7 @@
         <v>1.6874449505046987E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>72</v>
       </c>
@@ -5312,7 +5758,7 @@
         <v>-3.0650728298559516E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
@@ -5354,7 +5800,7 @@
         <v>2.1834906071364377E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B68" s="8">
         <v>1024</v>
       </c>
@@ -5384,7 +5830,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B69" s="8">
         <v>1024</v>
       </c>
@@ -5414,7 +5860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8">
         <v>1024</v>
       </c>
@@ -5444,7 +5890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B71" s="8">
         <v>1024</v>
       </c>
@@ -5474,7 +5920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B72" s="8">
         <v>1024</v>
       </c>
@@ -5504,7 +5950,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73" s="8">
         <v>1024</v>
       </c>
@@ -5534,7 +5980,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -5576,7 +6022,7 @@
         <v>1.7729389564806897E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -5618,7 +6064,7 @@
         <v>9.304910295377708E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -5660,7 +6106,7 @@
         <v>2.2558436452653423E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -5702,7 +6148,7 @@
         <v>6.2285692875223814E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -5744,7 +6190,7 @@
         <v>5.9507802752604621E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -5786,7 +6232,7 @@
         <v>1.4917576042999052E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B80" s="9">
         <v>2048</v>
       </c>
@@ -5816,7 +6262,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B81" s="9">
         <v>2048</v>
       </c>
@@ -5846,7 +6292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="9">
         <v>2048</v>
       </c>
@@ -5876,7 +6322,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B83" s="9">
         <v>2048</v>
       </c>
@@ -5906,7 +6352,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B84" s="9">
         <v>2048</v>
       </c>
@@ -5936,7 +6382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B85" s="9">
         <v>2048</v>
       </c>
@@ -5966,7 +6412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
@@ -6008,7 +6454,7 @@
         <v>5.3599026714199107E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>81</v>
       </c>
@@ -6050,7 +6496,7 @@
         <v>4.9525061431552962E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>82</v>
       </c>
@@ -6092,7 +6538,7 @@
         <v>-2.8343535219888948E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>83</v>
       </c>
@@ -6134,7 +6580,7 @@
         <v>-7.3008711852111021E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
@@ -6176,7 +6622,7 @@
         <v>2.7886579398603492E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
@@ -6218,7 +6664,7 @@
         <v>-9.00263340460194E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B92" s="8">
         <v>1024</v>
       </c>
@@ -6248,7 +6694,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B93" s="8">
         <v>1024</v>
       </c>
@@ -6278,7 +6724,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8">
         <v>1024</v>
       </c>
@@ -6308,7 +6754,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B95" s="8">
         <v>1024</v>
       </c>
@@ -6338,7 +6784,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B96" s="8">
         <v>1024</v>
       </c>
@@ -6368,7 +6814,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="2:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B97" s="8">
         <v>1024</v>
       </c>
@@ -6398,7 +6844,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="570" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="10:10" ht="13" x14ac:dyDescent="0.15">
       <c r="J570" s="2" t="s">
         <v>86</v>
       </c>
@@ -6414,7 +6860,7 @@
   <customSheetViews>
     <customSheetView guid="{090C84B6-707E-4C3B-9D95-45B567422621}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Y97" xr:uid="{03E7EE4C-7A3C-4110-93AD-27E69820C643}">
+      <autoFilter ref="A1:Y97" xr:uid="{64CB029D-1411-3A4D-88C0-18F42ED87816}">
         <filterColumn colId="3">
           <filters>
             <filter val="32"/>
@@ -6427,7 +6873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6436,13 +6882,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="26" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="26" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -6465,7 +6911,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -6482,7 +6928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
@@ -6502,7 +6948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>105</v>
       </c>
@@ -6522,7 +6968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>111</v>
       </c>
@@ -6536,7 +6982,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>114</v>
       </c>
@@ -6544,7 +6990,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>116</v>
       </c>
@@ -6561,7 +7007,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>120</v>
       </c>
@@ -6569,7 +7015,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>122</v>
       </c>
@@ -6577,7 +7023,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
@@ -6588,7 +7034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>127</v>
       </c>

--- a/outputs/final report/Hyperparameter_Tuning_Results_FINAL.xlsx
+++ b/outputs/final report/Hyperparameter_Tuning_Results_FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hengyejing/gitrepo/Go3D/outputs/final report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepo\Go3D\outputs\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D8B9E-38FF-8F4B-B177-0F3AADC15D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D933B6-5ED4-4361-BF83-76450431F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="500" windowWidth="22720" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
   <si>
     <t>RUN ID</t>
   </si>
@@ -526,9 +526,6 @@
   </si>
   <si>
     <t>Bathtub</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -732,14 +729,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2452,27 +2449,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067AAC5A-218C-483D-AE79-B600D4807287}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -2480,30 +2477,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
@@ -2513,7 +2510,7 @@
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="26" t="s">
         <v>136</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2577,7 +2574,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2630,47 +2627,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997E57C-0FE5-7843-AAE2-C1B04C48FD5F}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>87</v>
@@ -2703,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -2738,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -2843,7 +2852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -2913,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2983,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -3047,19 +3056,19 @@
       <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3109,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>-1.0407862703665862E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>-1.8286207072180621E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3226,7 +3235,7 @@
         <v>-1.8286207072180621E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3268,7 +3277,7 @@
         <v>-1.1218108404623756E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3310,7 +3319,7 @@
         <v>9.0964883501242488E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3352,7 +3361,7 @@
         <v>-3.0016069831341946E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3394,7 +3403,7 @@
         <v>-2.3561470927992108E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3436,7 +3445,7 @@
         <v>0.15200350527746928</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3478,7 +3487,7 @@
         <v>6.2631264398589105E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3520,7 +3529,7 @@
         <v>-4.0195238847352812E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v>6.5065759614531066E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3604,7 +3613,7 @@
         <v>9.1467024042354503E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>-9.0954770035014936E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -3688,7 +3697,7 @@
         <v>1.3001981229947848E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3730,7 +3739,7 @@
         <v>7.2075520939396988E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -3772,7 +3781,7 @@
         <v>-1.0355021232483356E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -3814,7 +3823,7 @@
         <v>1.1454382855175214E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -3856,7 +3865,7 @@
         <v>1.3363395668038194E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>5.6726129075369565E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3940,7 +3949,7 @@
         <v>0.11864177327854354</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>-5.07076934845939E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -4024,7 +4033,7 @@
         <v>3.9722670815608464E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -4066,7 +4075,7 @@
         <v>0.19606307184419669</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -4108,7 +4117,7 @@
         <v>5.0599144435166978E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -4150,7 +4159,7 @@
         <v>2.1547033016671688E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -4192,7 +4201,7 @@
         <v>-6.65334704090975E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -4234,7 +4243,7 @@
         <v>2.2121251569327781E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -4276,7 +4285,7 @@
         <v>6.7321857175307058E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -4318,7 +4327,7 @@
         <v>1.5743452649123985E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -4360,7 +4369,7 @@
         <v>3.224772100873495E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -4402,7 +4411,7 @@
         <v>3.2211133422565159E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -4444,7 +4453,7 @@
         <v>3.2877098958211878E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>5.6595992508970634E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -4528,7 +4537,7 @@
         <v>1.240444219631128E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -4570,7 +4579,7 @@
         <v>0.11253014634023913</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>7.5436131196492083E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>2.5781752580197864E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -4696,7 +4705,7 @@
         <v>1.8803369904942538E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>51</v>
       </c>
@@ -4738,7 +4747,7 @@
         <v>-2.4986978153433686E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>8.0886319035882864E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -4822,7 +4831,7 @@
         <v>6.2753550993966383E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -4864,7 +4873,7 @@
         <v>1.379860309159138E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -4906,7 +4915,7 @@
         <v>1.831255132157605E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -4948,7 +4957,7 @@
         <v>1.7690435235234656E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
@@ -4990,7 +4999,7 @@
         <v>1.4407689225215079E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
@@ -5032,7 +5041,7 @@
         <v>4.2873745713246245E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
@@ -5074,7 +5083,7 @@
         <v>3.5497756245759342E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -5116,7 +5125,7 @@
         <v>6.1910740936847786E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v>-9.5414016018256515E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>63</v>
       </c>
@@ -5200,7 +5209,7 @@
         <v>-7.9876071200247513E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>64</v>
       </c>
@@ -5242,7 +5251,7 @@
         <v>1.8934414173543582E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -5284,7 +5293,7 @@
         <v>5.440189886360778E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>66</v>
       </c>
@@ -5326,7 +5335,7 @@
         <v>5.0853859000011506E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>67</v>
       </c>
@@ -5368,7 +5377,7 @@
         <v>3.1788178436275571E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>2048</v>
       </c>
@@ -5398,7 +5407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>2048</v>
       </c>
@@ -5428,7 +5437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>2048</v>
       </c>
@@ -5458,7 +5467,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>2048</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>2048</v>
       </c>
@@ -5518,7 +5527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>2048</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
@@ -5590,7 +5599,7 @@
         <v>-2.6826133558513952E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -5632,7 +5641,7 @@
         <v>0.17641959540523033</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -5674,7 +5683,7 @@
         <v>5.525864542257989E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
@@ -5716,7 +5725,7 @@
         <v>1.6874449505046987E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>72</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>-3.0650728298559516E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
@@ -5800,7 +5809,7 @@
         <v>2.1834906071364377E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="8">
         <v>1024</v>
       </c>
@@ -5830,7 +5839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="8">
         <v>1024</v>
       </c>
@@ -5860,7 +5869,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
         <v>1024</v>
       </c>
@@ -5890,7 +5899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
         <v>1024</v>
       </c>
@@ -5920,7 +5929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="8">
         <v>1024</v>
       </c>
@@ -5950,7 +5959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="8">
         <v>1024</v>
       </c>
@@ -5980,7 +5989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -6022,7 +6031,7 @@
         <v>1.7729389564806897E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -6064,7 +6073,7 @@
         <v>9.304910295377708E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -6106,7 +6115,7 @@
         <v>2.2558436452653423E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -6148,7 +6157,7 @@
         <v>6.2285692875223814E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -6190,7 +6199,7 @@
         <v>5.9507802752604621E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -6232,7 +6241,7 @@
         <v>1.4917576042999052E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9">
         <v>2048</v>
       </c>
@@ -6262,7 +6271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9">
         <v>2048</v>
       </c>
@@ -6292,7 +6301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="9">
         <v>2048</v>
       </c>
@@ -6322,7 +6331,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9">
         <v>2048</v>
       </c>
@@ -6352,7 +6361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9">
         <v>2048</v>
       </c>
@@ -6382,7 +6391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9">
         <v>2048</v>
       </c>
@@ -6412,7 +6421,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
@@ -6454,7 +6463,7 @@
         <v>5.3599026714199107E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>81</v>
       </c>
@@ -6496,7 +6505,7 @@
         <v>4.9525061431552962E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>82</v>
       </c>
@@ -6538,7 +6547,7 @@
         <v>-2.8343535219888948E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>83</v>
       </c>
@@ -6580,7 +6589,7 @@
         <v>-7.3008711852111021E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
@@ -6622,7 +6631,7 @@
         <v>2.7886579398603492E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
@@ -6664,7 +6673,7 @@
         <v>-9.00263340460194E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="8">
         <v>1024</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="8">
         <v>1024</v>
       </c>
@@ -6724,7 +6733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="8">
         <v>1024</v>
       </c>
@@ -6754,7 +6763,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8">
         <v>1024</v>
       </c>
@@ -6784,7 +6793,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="8">
         <v>1024</v>
       </c>
@@ -6814,7 +6823,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="2:13" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="8">
         <v>1024</v>
       </c>
@@ -6844,7 +6853,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="570" spans="10:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J570" s="2" t="s">
         <v>86</v>
       </c>
@@ -6860,7 +6869,7 @@
   <customSheetViews>
     <customSheetView guid="{090C84B6-707E-4C3B-9D95-45B567422621}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Y97" xr:uid="{64CB029D-1411-3A4D-88C0-18F42ED87816}">
+      <autoFilter ref="A1:Y97" xr:uid="{BAD7C8B5-688B-4053-BB6F-0F0757C13887}">
         <filterColumn colId="3">
           <filters>
             <filter val="32"/>
@@ -6882,13 +6891,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="26" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="26" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -6911,7 +6920,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -6928,7 +6937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
@@ -6948,7 +6957,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>105</v>
       </c>
@@ -6968,7 +6977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>111</v>
       </c>
@@ -6982,7 +6991,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>114</v>
       </c>
@@ -7007,7 +7016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>120</v>
       </c>
@@ -7015,7 +7024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>122</v>
       </c>
@@ -7023,7 +7032,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
@@ -7034,7 +7043,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>127</v>
       </c>
